--- a/biology/Botanique/Gratiola_officinalis/Gratiola_officinalis.xlsx
+++ b/biology/Botanique/Gratiola_officinalis/Gratiola_officinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gratiola officinalis, la Gratiole officinale, est une espèce de plantes herbacées vivaces. Elle appartient à la famille des Scrophulariaceae selon la classification classique, ou à celle des Plantaginaceae selon la classification phylogénétique.
 </t>
@@ -511,9 +523,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante porte de nombreux noms vernaculaires : Gratiole (diminutif de gratia, « grâce (de Dieu) »), Grâce de dieu, Herbe au pauvre homme, Petite digitale, Hysope de haie, Centauroïde, Herbe de dieu. Ces noms font référence à ses propriétés médicinales (émétique, purgatif). Elle était réputée guérir contre des malédictions, comme l'épilepsie et des maladies mentales. Aujourd'hui, elle est surtout réputée pour sa toxicité liée à la présence d'hétérosides cardiotoniques et surtout d'hétérosides de cucurbitacines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante porte de nombreux noms vernaculaires : Gratiole (diminutif de gratia, « grâce (de Dieu) »), Grâce de dieu, Herbe au pauvre homme, Petite digitale, Hysope de haie, Centauroïde, Herbe de dieu. Ces noms font référence à ses propriétés médicinales (émétique, purgatif). Elle était réputée guérir contre des malédictions, comme l'épilepsie et des maladies mentales. Aujourd'hui, elle est surtout réputée pour sa toxicité liée à la présence d'hétérosides cardiotoniques et surtout d'hétérosides de cucurbitacines.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante vivace glabre peut atteindre 20 à 60 cm de hauteur. Elle possède une souche rampante et radicante. La tige feuillée est creuse, carrée, noueuse et glabre. Elle est érigée, rampante et radicante à la base. Les feuilles sessiles, glabres, linéaires à lancéolées, sont opposées. Leur limbe denté, d'un vert jaunâtre avec 3 nervures, est ponctué de glandes translucides[3].
-Les fleurs blanc rosâtre hermaphrodites de 10 à 18 mm de longueur, sont axillaires et solitaires. Nervurées et teintées de rouge pourpré, elles ont deux lèvres tubuleuses et une lèvre inférieure trilobée. L'androcée est réduit à quatre étamines, l'avortement ayant frappé l'étamine postérieure alors que les deux étamines antérieures demeurent stériles (sans anthères)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vivace glabre peut atteindre 20 à 60 cm de hauteur. Elle possède une souche rampante et radicante. La tige feuillée est creuse, carrée, noueuse et glabre. Elle est érigée, rampante et radicante à la base. Les feuilles sessiles, glabres, linéaires à lancéolées, sont opposées. Leur limbe denté, d'un vert jaunâtre avec 3 nervures, est ponctué de glandes translucides.
+Les fleurs blanc rosâtre hermaphrodites de 10 à 18 mm de longueur, sont axillaires et solitaires. Nervurées et teintées de rouge pourpré, elles ont deux lèvres tubuleuses et une lèvre inférieure trilobée. L'androcée est réduit à quatre étamines, l'avortement ayant frappé l'étamine postérieure alors que les deux étamines antérieures demeurent stériles (sans anthères).
 			Dessin de Gratiola officinalis.
 			Fleur de Gratiola officinalis.
 			Touffe de Gratiola officinalis.
@@ -577,10 +593,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gratiola officinalis est originaire des zones tempérées d'Europe. Elle est commune dans l'Ouest et le Centre de la France, plus rare ailleurs jusqu'à 500 m.
-Cette plante vit dans des lieux humides (prés, marécages, bord des cours d'eau, fossés)[3].
+Cette plante vit dans des lieux humides (prés, marécages, bord des cours d'eau, fossés).
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante toxique[4] bénéficie d'un arrêté de protection sur l'ensemble du territoire national français.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante toxique bénéficie d'un arrêté de protection sur l'ensemble du territoire national français.
 </t>
         </is>
       </c>
